--- a/data/processed/state_overviews/south-dakota_overview.xlsx
+++ b/data/processed/state_overviews/south-dakota_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>459</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Beadle County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>10</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Bennett County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>4</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Bon Homme County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Brookings County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>15</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Brown County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>18</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Brule County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>2</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Butte County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>5</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Charles Mix County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>7</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Clark County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Clay County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>7</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Codington County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>22</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Corson County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>1</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Custer County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>4</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Davison County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>11</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Day County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>5</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Deuel County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>2</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Dewey County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>4</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Douglas County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>2</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Fall River County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>3</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Faulk County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>1</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Grant County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>2</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Gregory County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>2</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Haakon County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>1</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Hamlin County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>1</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Hand County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>2</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Hughes County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>17</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Hutchinson County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>8</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Jackson County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>7</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Jones County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>1</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Kingsbury County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>2</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Lake County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>11</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Lawrence County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>26</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Lincoln County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>7</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Lyman County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>1</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>Marshall County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>2</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>McPherson County</t>
         </is>
       </c>
-      <c r="B37">
-        <v>2</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>Meade County</t>
         </is>
       </c>
-      <c r="B38">
-        <v>7</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>Miner County</t>
         </is>
       </c>
-      <c r="B39">
-        <v>2</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,8 +1682,10 @@
           <t>Minnehaha County</t>
         </is>
       </c>
-      <c r="B40">
-        <v>97</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,8 +1714,10 @@
           <t>Oglala Lakota County</t>
         </is>
       </c>
-      <c r="B41">
-        <v>8</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,8 +1746,10 @@
           <t>Pennington County</t>
         </is>
       </c>
-      <c r="B42">
-        <v>73</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1694,8 +1778,10 @@
           <t>Perkins County</t>
         </is>
       </c>
-      <c r="B43">
-        <v>3</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1724,8 +1810,10 @@
           <t>Potter County</t>
         </is>
       </c>
-      <c r="B44">
-        <v>2</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1754,8 +1842,10 @@
           <t>Roberts County</t>
         </is>
       </c>
-      <c r="B45">
-        <v>7</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1784,8 +1874,10 @@
           <t>Spink County</t>
         </is>
       </c>
-      <c r="B46">
-        <v>1</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1814,8 +1906,10 @@
           <t>Stanley County</t>
         </is>
       </c>
-      <c r="B47">
-        <v>4</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1844,8 +1938,10 @@
           <t>Todd County</t>
         </is>
       </c>
-      <c r="B48">
-        <v>5</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1874,8 +1970,10 @@
           <t>Tripp County</t>
         </is>
       </c>
-      <c r="B49">
-        <v>4</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1904,8 +2002,10 @@
           <t>Turner County</t>
         </is>
       </c>
-      <c r="B50">
-        <v>5</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1934,8 +2034,10 @@
           <t>Union County</t>
         </is>
       </c>
-      <c r="B51">
-        <v>4</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1964,8 +2066,10 @@
           <t>Walworth County</t>
         </is>
       </c>
-      <c r="B52">
-        <v>2</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1994,8 +2098,10 @@
           <t>Yankton County</t>
         </is>
       </c>
-      <c r="B53">
-        <v>14</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2024,8 +2130,10 @@
           <t>Ziebach County</t>
         </is>
       </c>
-      <c r="B54">
-        <v>3</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2054,27 +2162,29 @@
           <t>Moody County</t>
         </is>
       </c>
-      <c r="B55">
-        <v>0</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2084,27 +2194,29 @@
           <t>Jerauld County</t>
         </is>
       </c>
-      <c r="B56">
-        <v>0</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2114,27 +2226,29 @@
           <t>McCook County</t>
         </is>
       </c>
-      <c r="B57">
-        <v>0</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2144,27 +2258,29 @@
           <t>Sully County</t>
         </is>
       </c>
-      <c r="B58">
-        <v>0</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2174,27 +2290,29 @@
           <t>Hanson County</t>
         </is>
       </c>
-      <c r="B59">
-        <v>0</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2204,27 +2322,29 @@
           <t>Harding County</t>
         </is>
       </c>
-      <c r="B60">
-        <v>0</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2234,27 +2354,29 @@
           <t>Aurora County</t>
         </is>
       </c>
-      <c r="B61">
-        <v>0</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2264,27 +2386,29 @@
           <t>Mellette County</t>
         </is>
       </c>
-      <c r="B62">
-        <v>0</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2294,27 +2418,29 @@
           <t>Edmunds County</t>
         </is>
       </c>
-      <c r="B63">
-        <v>0</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2324,27 +2450,61 @@
           <t>Sanborn County</t>
         </is>
       </c>
-      <c r="B64">
-        <v>0</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>$812,178,184</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>11.76%</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-5.43%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>59.69%</t>
         </is>
       </c>
     </row>
@@ -2399,8 +2559,10 @@
           <t>Congressional District (at Large)</t>
         </is>
       </c>
-      <c r="B2">
-        <v>459</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2429,8 +2591,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B3">
-        <v>459</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2504,8 +2668,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>161</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2534,8 +2700,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>102</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2564,8 +2732,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>75</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2594,8 +2764,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>32</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2624,8 +2796,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>66</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2654,8 +2828,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>23</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2684,8 +2860,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>459</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2759,8 +2937,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>36</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2789,8 +2969,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>40</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2819,8 +3001,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>17</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2849,8 +3033,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>31</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2879,8 +3065,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>23</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2909,8 +3097,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>146</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2939,8 +3129,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2969,8 +3161,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>44</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2999,8 +3193,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B10">
-        <v>11</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3029,8 +3225,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B11">
-        <v>106</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3059,8 +3257,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B12">
-        <v>4</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3089,8 +3289,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B13">
-        <v>459</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/south-dakota_overview.xlsx
+++ b/data/processed/state_overviews/south-dakota_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,327 +431,327 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Beadle County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$2,807,327</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.78%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-6.49%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bennett County</t>
+          <t>South Dakota</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>459</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$4,098,814</t>
+          <t>$812,178,184</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27.39%</t>
+          <t>11.76%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-20.19%</t>
+          <t>-5.43%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>59.69%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bon Homme County</t>
+          <t>Beadle County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$670,340</t>
+          <t>$2,807,327</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.36%</t>
+          <t>4.78%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.27%</t>
+          <t>-6.49%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>70.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brookings County</t>
+          <t>Bennett County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$11,354,557</t>
+          <t>$4,098,814</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18.29%</t>
+          <t>27.39%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-8.71%</t>
+          <t>-20.19%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brown County</t>
+          <t>Bon Homme County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$16,843,801</t>
+          <t>$670,340</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.50%</t>
+          <t>7.36%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-2.59%</t>
+          <t>3.27%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>61.11%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brule County</t>
+          <t>Brookings County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$240,910</t>
+          <t>$11,354,557</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.08%</t>
+          <t>18.29%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-50.40%</t>
+          <t>-8.71%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Butte County</t>
+          <t>Brown County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$2,132,029</t>
+          <t>$16,843,801</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.37%</t>
+          <t>10.50%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-14.66%</t>
+          <t>-2.59%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>61.11%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Charles Mix County</t>
+          <t>Brule County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$14,675,591</t>
+          <t>$240,910</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.51%</t>
+          <t>7.08%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-13.65%</t>
+          <t>-50.40%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Clark County</t>
+          <t>Butte County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$7,330</t>
+          <t>$2,132,029</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.34%</t>
+          <t>1.37%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.50%</t>
+          <t>-14.66%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Clay County</t>
+          <t>Charles Mix County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -761,253 +761,253 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$1,571,875</t>
+          <t>$14,675,591</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13.80%</t>
+          <t>9.51%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-7.15%</t>
+          <t>-13.65%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Codington County</t>
+          <t>Clark County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$19,863,361</t>
+          <t>$7,330</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14.75%</t>
+          <t>11.34%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.14%</t>
+          <t>0.50%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Corson County</t>
+          <t>Clay County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$136,547</t>
+          <t>$1,571,875</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>21.42%</t>
+          <t>13.80%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-67.76%</t>
+          <t>-7.15%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>57.14%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Custer County</t>
+          <t>Codington County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$677,431</t>
+          <t>$19,863,361</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14.46%</t>
+          <t>14.75%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-23.33%</t>
+          <t>0.14%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Davison County</t>
+          <t>Corson County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$12,826,691</t>
+          <t>$136,547</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.85%</t>
+          <t>21.42%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-13.34%</t>
+          <t>-67.76%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>81.82%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Day County</t>
+          <t>Custer County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$5,909,059</t>
+          <t>$677,431</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11.90%</t>
+          <t>14.46%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.16%</t>
+          <t>-23.33%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>40.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Deuel County</t>
+          <t>Davison County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$346,722</t>
+          <t>$12,826,691</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-5.09%</t>
+          <t>0.85%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-41.02%</t>
+          <t>-13.34%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>81.82%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dewey County</t>
+          <t>Day County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$948,649</t>
+          <t>$5,909,059</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-0.25%</t>
+          <t>11.90%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-11.27%</t>
+          <t>4.16%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Douglas County</t>
+          <t>Deuel County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1017,145 +1017,145 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$150,129</t>
+          <t>$346,722</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-12.64%</t>
+          <t>-5.09%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-13.40%</t>
+          <t>-41.02%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fall River County</t>
+          <t>Dewey County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$6,907,517</t>
+          <t>$948,649</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>20.63%</t>
+          <t>-0.25%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-1.64%</t>
+          <t>-11.27%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Faulk County</t>
+          <t>Douglas County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$2,910,013</t>
+          <t>$150,129</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>21.05%</t>
+          <t>-12.64%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.61%</t>
+          <t>-13.40%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Grant County</t>
+          <t>Fall River County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$585,504</t>
+          <t>$6,907,517</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.25%</t>
+          <t>20.63%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-4.99%</t>
+          <t>-1.64%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Gregory County</t>
+          <t>Faulk County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$2,834,822</t>
+          <t>$2,910,013</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>50.02%</t>
+          <t>21.05%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>21.66%</t>
+          <t>0.61%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1167,59 +1167,59 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Haakon County</t>
+          <t>Grant County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$1,849,287</t>
+          <t>$585,504</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>16.25%</t>
+          <t>4.25%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5.86%</t>
+          <t>-4.99%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Hamlin County</t>
+          <t>Gregory County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$35,636</t>
+          <t>$2,834,822</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>71.08%</t>
+          <t>50.02%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11.62%</t>
+          <t>21.66%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1231,379 +1231,379 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Hand County</t>
+          <t>Haakon County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$178,673</t>
+          <t>$1,849,287</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>7.21%</t>
+          <t>16.25%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-12.41%</t>
+          <t>5.86%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Hughes County</t>
+          <t>Hamlin County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$72,243,616</t>
+          <t>$35,636</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>9.61%</t>
+          <t>71.08%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-41.01%</t>
+          <t>11.62%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>64.71%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hutchinson County</t>
+          <t>Hand County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$5,477,942</t>
+          <t>$178,673</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>17.24%</t>
+          <t>7.21%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1.14%</t>
+          <t>-12.41%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>37.50%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Jackson County</t>
+          <t>Hughes County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$69,547,179</t>
+          <t>$72,243,616</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8.96%</t>
+          <t>9.61%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-54.48%</t>
+          <t>-41.01%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>64.71%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Jones County</t>
+          <t>Hutchinson County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$32,321</t>
+          <t>$5,477,942</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12.36%</t>
+          <t>17.24%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-13.17%</t>
+          <t>1.14%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>37.50%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Kingsbury County</t>
+          <t>Jackson County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$31,950</t>
+          <t>$69,547,179</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>31.27%</t>
+          <t>8.96%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>19.02%</t>
+          <t>-54.48%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Lake County</t>
+          <t>Jones County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$23,534,514</t>
+          <t>$32,321</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>10.33%</t>
+          <t>12.36%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.91%</t>
+          <t>-13.17%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>45.45%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Lawrence County</t>
+          <t>Kingsbury County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$7,694,988</t>
+          <t>$31,950</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>16.56%</t>
+          <t>31.27%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-16.31%</t>
+          <t>19.02%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>57.69%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lincoln County</t>
+          <t>Lake County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$3,769,028</t>
+          <t>$23,534,514</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4.31%</t>
+          <t>10.33%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-7.06%</t>
+          <t>1.91%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>45.45%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Lyman County</t>
+          <t>Lawrence County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$503,885</t>
+          <t>$7,694,988</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-2.98%</t>
+          <t>16.56%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-84.16%</t>
+          <t>-16.31%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>57.69%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Marshall County</t>
+          <t>Lincoln County</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$404,878</t>
+          <t>$3,769,028</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>15.78%</t>
+          <t>4.31%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-4.09%</t>
+          <t>-7.06%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>McPherson County</t>
+          <t>Lyman County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$334,519</t>
+          <t>$503,885</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3.61%</t>
+          <t>-2.98%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-5.62%</t>
+          <t>-84.16%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1615,39 +1615,39 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Meade County</t>
+          <t>Marshall County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$2,352,624</t>
+          <t>$404,878</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5.50%</t>
+          <t>15.78%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-12.49%</t>
+          <t>-4.09%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Miner County</t>
+          <t>McPherson County</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1657,17 +1657,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$18,684,922</t>
+          <t>$334,519</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>18.40%</t>
+          <t>3.61%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-26.32%</t>
+          <t>-5.62%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1679,295 +1679,295 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Minnehaha County</t>
+          <t>Meade County</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$253,788,340</t>
+          <t>$2,352,624</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>9.54%</t>
+          <t>5.50%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-4.04%</t>
+          <t>-12.49%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>57.73%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Oglala Lakota County</t>
+          <t>Miner County</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$13,992,108</t>
+          <t>$18,684,922</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>22.96%</t>
+          <t>18.40%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-8.00%</t>
+          <t>-26.32%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Pennington County</t>
+          <t>Minnehaha County</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$153,641,247</t>
+          <t>$253,788,340</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>11.27%</t>
+          <t>9.54%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-5.73%</t>
+          <t>-4.04%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>57.53%</t>
+          <t>57.73%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Perkins County</t>
+          <t>Oglala Lakota County</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$1,373,301</t>
+          <t>$13,992,108</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>15.68%</t>
+          <t>22.96%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.96%</t>
+          <t>-8.00%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>62.50%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Potter County</t>
+          <t>Pennington County</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$608,924</t>
+          <t>$153,641,247</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-1.51%</t>
+          <t>11.27%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-30.22%</t>
+          <t>-5.73%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>57.53%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Roberts County</t>
+          <t>Perkins County</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$24,272,564</t>
+          <t>$1,373,301</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>15.82%</t>
+          <t>15.68%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-2.72%</t>
+          <t>0.96%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Spink County</t>
+          <t>Potter County</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$12,780</t>
+          <t>$608,924</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>12.60%</t>
+          <t>-1.51%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>8.17%</t>
+          <t>-30.22%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Stanley County</t>
+          <t>Roberts County</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$235,077</t>
+          <t>$24,272,564</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>8.32%</t>
+          <t>15.82%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-25.56%</t>
+          <t>-2.72%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Todd County</t>
+          <t>Spink County</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$23,768,338</t>
+          <t>$12,780</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-0.20%</t>
+          <t>12.60%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-98.78%</t>
+          <t>8.17%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Tripp County</t>
+          <t>Stanley County</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1977,29 +1977,29 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$6,053,692</t>
+          <t>$235,077</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>8.77%</t>
+          <t>8.32%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-8.25%</t>
+          <t>-25.56%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Turner County</t>
+          <t>Todd County</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2009,29 +2009,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$3,322,630</t>
+          <t>$23,768,338</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>25.10%</t>
+          <t>-0.20%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4.61%</t>
+          <t>-98.78%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>20.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Union County</t>
+          <t>Tripp County</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2041,17 +2041,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$277,484</t>
+          <t>$6,053,692</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.99%</t>
+          <t>8.77%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-17.45%</t>
+          <t>-8.25%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2063,448 +2063,160 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Walworth County</t>
+          <t>Turner County</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$32,852</t>
+          <t>$3,322,630</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>18.78%</t>
+          <t>25.10%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5.09%</t>
+          <t>4.61%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Yankton County</t>
+          <t>Union County</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$13,647,288</t>
+          <t>$277,484</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>18.76%</t>
+          <t>0.99%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-0.35%</t>
+          <t>-17.45%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Ziebach County</t>
+          <t>Walworth County</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$1,976,578</t>
+          <t>$32,852</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>59.84%</t>
+          <t>18.78%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>39.78%</t>
+          <t>5.09%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Moody County</t>
+          <t>Yankton County</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$13,647,288</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>18.76%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-0.35%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Jerauld County</t>
+          <t>Ziebach County</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>$1,976,578</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>59.84%</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>39.78%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
           <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>McCook County</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Sully County</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Hanson County</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Harding County</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Aurora County</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Mellette County</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Edmunds County</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Sanborn County</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>459</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>$812,178,184</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>11.76%</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>-5.43%</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>59.69%</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2227,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2524,71 +2236,71 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District (at Large)</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>459</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$812,178,184</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.76%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-5.43%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>59.69%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>South Dakota</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2612,6 +2324,38 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>59.69%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Congressional district (at large)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>$812,178,184</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.76%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-5.43%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>59.69%</t>
         </is>
@@ -2638,34 +2382,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2697,128 +2441,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>66</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$85,298,990</t>
+          <t>$601,094,369</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.11%</t>
+          <t>5.19%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-2.72%</t>
+          <t>-2.19%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>56.86%</t>
+          <t>56.06%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$29,429,202</t>
+          <t>$85,298,990</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.28%</t>
+          <t>14.11%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-12.49%</t>
+          <t>-2.72%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>62.67%</t>
+          <t>56.86%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$79,425,601</t>
+          <t>$29,429,202</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.93%</t>
+          <t>13.28%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-11.98%</t>
+          <t>-12.49%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>81.25%</t>
+          <t>62.67%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$601,094,369</t>
+          <t>$79,425,601</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.19%</t>
+          <t>3.93%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-2.19%</t>
+          <t>-11.98%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>56.06%</t>
+          <t>81.25%</t>
         </is>
       </c>
     </row>
@@ -2907,34 +2651,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2966,7 +2710,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2998,7 +2742,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3030,7 +2774,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3094,7 +2838,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3126,7 +2870,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3158,7 +2902,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3190,7 +2934,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3222,64 +2966,64 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$258,971,250</t>
+          <t>$9,792,260</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11.19%</t>
+          <t>2.93%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-7.41%</t>
+          <t>-7.00%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>59.43%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>106</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$9,792,260</t>
+          <t>$258,971,250</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.93%</t>
+          <t>11.19%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-7.00%</t>
+          <t>-7.41%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>59.43%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/south-dakota_overview.xlsx
+++ b/data/processed/state_overviews/south-dakota_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>59.69%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>459</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$812,178,184</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>11.76%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-5.43%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>59.69%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>59.69%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>459</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$812,178,184</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>11.76%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-5.43%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>59.69%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$2,807,327</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>4.78%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-6.49%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$4,098,814</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>27.39%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-20.19%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$670,340</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>7.36%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.27%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$11,354,557</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>18.29%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-8.71%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>61.11%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$16,843,801</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>10.50%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-2.59%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>61.11%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$240,910</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>7.08%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-50.40%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$2,132,029</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1.37%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-14.66%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$14,675,591</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>9.51%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-13.65%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$7,330</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>11.34%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>0.50%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$1,571,875</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>13.80%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-7.15%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$19,863,361</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>14.75%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>0.14%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$136,547</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>21.42%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-67.76%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$677,431</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>14.46%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-23.33%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>81.82%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$12,826,691</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>0.85%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-13.34%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>81.82%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$5,909,059</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>11.90%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>4.16%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$346,722</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>-5.09%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-41.02%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$948,649</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>-0.25%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-11.27%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$150,129</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>-12.64%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-13.40%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$6,907,517</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>20.63%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-1.64%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$2,910,013</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>21.05%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>0.61%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$585,504</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>4.25%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-4.99%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$2,834,822</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>50.02%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>21.66%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$1,849,287</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>16.25%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>5.86%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$35,636</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>71.08%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>11.62%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$178,673</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>7.21%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-12.41%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>64.71%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$72,243,616</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>9.61%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>-41.01%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>64.71%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>37.50%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$5,477,942</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>17.24%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1.14%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>37.50%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$69,547,179</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>8.96%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-54.48%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$32,321</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>12.36%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-13.17%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$31,950</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>31.27%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>19.02%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>45.45%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$23,534,514</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>10.33%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1.91%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>45.45%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>57.69%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$7,694,988</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>16.56%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-16.31%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>57.69%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$3,769,028</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>4.31%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-7.06%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$503,885</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>-2.98%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-84.16%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$404,878</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>15.78%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-4.09%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$334,519</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>3.61%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-5.62%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$2,352,624</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>5.50%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-12.49%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$18,684,922</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>18.40%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-26.32%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>57.73%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>97</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$253,788,340</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>9.54%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>-4.04%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>57.73%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$13,992,108</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>22.96%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>-8.00%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>62.50%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>57.53%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>73</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>$153,641,247</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>11.27%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>-5.73%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>57.53%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>$1,373,301</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>15.68%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>0.96%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>$608,924</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>-1.51%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-30.22%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1908,27 +1908,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>$24,272,564</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>15.82%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>-2.72%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>$12,780</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>12.60%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>8.17%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1972,27 +1972,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>$235,077</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>8.32%</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>-25.56%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2004,27 +2004,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>$23,768,338</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>-0.20%</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>-98.78%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -2036,27 +2036,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>$6,053,692</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>8.77%</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>-8.25%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2068,27 +2068,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>$3,322,630</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>25.10%</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>4.61%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -2100,27 +2100,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>$277,484</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>0.99%</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>-17.45%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2132,27 +2132,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>$32,852</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>18.78%</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>5.09%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2164,27 +2164,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>$13,647,288</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>18.76%</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>-0.35%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2196,27 +2196,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>$1,976,578</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>59.84%</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>39.78%</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2241,27 +2241,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -2273,27 +2273,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -2305,59 +2305,59 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>59.69%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>459</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$812,178,184</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>11.76%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-5.43%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>59.69%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional district (at large)</t>
+          <t>Congressional District (at Large)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>59.69%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>459</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$812,178,184</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>11.76%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-5.43%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>59.69%</t>
         </is>
       </c>
     </row>
@@ -2382,187 +2382,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>60.87%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>161</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$16,395,605</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>14.38%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-7.69%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>60.87%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>56.86%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$601,094,369</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.19%</t>
+          <t>$85,298,990</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-2.19%</t>
+          <t>14.11%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>56.06%</t>
+          <t>-2.72%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>62.67%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$85,298,990</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.11%</t>
+          <t>$29,429,202</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-2.72%</t>
+          <t>13.28%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>56.86%</t>
+          <t>-12.49%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>81.25%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$29,429,202</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.28%</t>
+          <t>$79,425,601</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-12.49%</t>
+          <t>3.93%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>62.67%</t>
+          <t>-11.98%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>56.06%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$79,425,601</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.93%</t>
+          <t>$601,094,369</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-11.98%</t>
+          <t>5.19%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>81.25%</t>
+          <t>-2.19%</t>
         </is>
       </c>
     </row>
@@ -2574,27 +2574,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>34.78%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$534,417</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>28.40%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>8.68%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>34.78%</t>
         </is>
       </c>
     </row>
@@ -2606,27 +2606,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>59.69%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>459</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$812,178,184</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>11.76%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-5.43%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>59.69%</t>
         </is>
       </c>
     </row>
@@ -2651,155 +2651,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>63.89%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$13,370,550</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>13.44%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-7.63%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>63.89%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>55.00%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>40</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$59,791,325</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.44%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-4.03%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>55.00%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>41.18%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$6,010,426</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>29.19%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>8.68%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>41.18%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>74.19%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$36,898,297</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>11.48%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-10.49%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>74.19%</t>
         </is>
       </c>
     </row>
@@ -2811,219 +2811,219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>47.83%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$196,368,630</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>6.35%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>0.61%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>47.83%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>61.64%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>146</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$147,623,743</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>12.19%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-7.47%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>61.64%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$49,895</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>21.30%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>17.89%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>54.55%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>44</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$79,590,796</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>23.43%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-6.74%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>54.55%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>63.64%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$3,711,012</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>15.12%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-13.18%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>63.64%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>59.43%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$9,792,260</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.93%</t>
+          <t>$258,971,250</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-7.00%</t>
+          <t>11.19%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>-7.41%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$258,971,250</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11.19%</t>
+          <t>$9,792,260</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-7.41%</t>
+          <t>2.93%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>59.43%</t>
+          <t>-7.00%</t>
         </is>
       </c>
     </row>
@@ -3035,27 +3035,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>59.69%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>459</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$812,178,184</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>11.76%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-5.43%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>59.69%</t>
         </is>
       </c>
     </row>
